--- a/API_답안_예시.xlsx
+++ b/API_답안_예시.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="469">
   <si>
     <t>김선민</t>
   </si>
@@ -6257,15 +6257,9 @@
     <t>감점요인</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 회원 조회의 응답 코드가 200이 아닙니다 (1점 감점)
-모든 회원 조회의 응답 본문 길이가 3보다 작거나 99보다 큽니다 (1점 감점)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 회원 조회의 응답 본문의 각각의 회원 정보에는 id, name, email, pw가 포함되어야 합니다 (1점 감점)
-특정 회원 조회의 응답 본문에 2개의 필수 정보가 누락되었습니다 (2점 감점)</t>
+    <t xml:space="preserve">응답 본문이 존재하지 않습니다 (3점 감점)
+응답 본문의 배열이 존재하지 않았거나 배열의 길이가 0입니다. 그러므로 유저조회를 할 수 없습니다. (5점 감점)
+존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
   </si>
   <si>
     <t>올바른 URL이 아닙니다: Invalid URL (10점 감점)</t>
@@ -6273,14 +6267,6 @@
   <si>
     <t xml:space="preserve">올바른 URL이 아닙니다: 허용되지 않은 프로토콜(https:)
 시험용 프로토콜은 http만 허용됩니다 (10점 감점)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 회원 조회의 응답 코드가 200이 아닙니다 (1점 감점)
-모든 회원 조회의 응답 본문 길이가 3보다 작거나 99보다 큽니다 (1점 감점)
-모든 회원 조회의 응답 본문의 각각의 회원 정보에는 id, name, email, pw가 포함되어야 합니다 (1점 감점)
-특정 회원 조회의 응답 코드가 200이 아닙니다 (1점 감점)
-특정 회원 조회의 응답 본문에 4개의 필수 정보가 누락되었습니다 (4점 감점)
-존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
   </si>
 </sst>
 </file>
@@ -19348,7 +19334,7 @@
         <v>422</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>466</v>
@@ -19365,10 +19351,10 @@
         <v>425</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19382,10 +19368,10 @@
         <v>428</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -19402,7 +19388,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -19419,7 +19405,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -19436,7 +19422,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/API_답안_예시.xlsx
+++ b/API_답안_예시.xlsx
@@ -6257,8 +6257,9 @@
     <t>감점요인</t>
   </si>
   <si>
-    <t xml:space="preserve">응답 본문이 존재하지 않습니다 (3점 감점)
-응답 본문의 배열이 존재하지 않았거나 배열의 길이가 0입니다. 그러므로 유저조회를 할 수 없습니다. (5점 감점)
+    <t xml:space="preserve">모든 회원 조회의 응답 코드가 200이 아닙니다 (1점 감점)
+모든 회원 조회의 응답 본문 길이가 3보다 작거나 99보다 큽니다 (1점 감점)
+응답 본문에 배열과 요소가 존재하나 특정 유저 조회를 위해 선택된 유저에게 id가 존재하지 않습니다. 그러므로 유저조회를 할 수 없습니다. (5점 감점)
 존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
   </si>
   <si>
@@ -19334,7 +19335,7 @@
         <v>422</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>466</v>
@@ -19351,7 +19352,7 @@
         <v>425</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>466</v>
@@ -19368,7 +19369,7 @@
         <v>428</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>466</v>
@@ -19419,7 +19420,7 @@
         <v>437</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>466</v>

--- a/API_답안_예시.xlsx
+++ b/API_답안_예시.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="472">
   <si>
     <t>김선민</t>
   </si>
@@ -6257,17 +6257,30 @@
     <t>감점요인</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 회원 조회의 응답 코드가 200이 아닙니다 (1점 감점)
+모든 회원 조회의 응답 본문 길이가 3보다 작거나 99보다 큽니다 (1점 감점)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 회원 조회의 응답 본문의 각각의 회원 정보에는 id, name, email, pw가 포함되어야 합니다 (1점 감점)
+특정 회원 조회의 응답 본문에 2개의 필수 정보가 누락되었습니다 (2점 감점)</t>
+  </si>
+  <si>
+    <t>올바른 URL이 아닙니다: Invalid URL (10점 감점)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">올바른 URL이 아닙니다: 허용되지 않은 프로토콜(https:)
+시험용 프로토콜은 http만 허용됩니다 (10점 감점)</t>
+  </si>
+  <si>
     <t xml:space="preserve">모든 회원 조회의 응답 코드가 200이 아닙니다 (1점 감점)
 모든 회원 조회의 응답 본문 길이가 3보다 작거나 99보다 큽니다 (1점 감점)
-응답 본문에 배열과 요소가 존재하나 특정 유저 조회를 위해 선택된 유저에게 id가 존재하지 않습니다. 그러므로 유저조회를 할 수 없습니다. (5점 감점)
+모든 회원 조회의 응답 본문의 각각의 회원 정보에는 id, name, email, pw가 포함되어야 합니다 (1점 감점)
+특정 회원 조회의 응답 코드가 200이 아닙니다 (1점 감점)
+특정 회원 조회의 응답 본문에 4개의 필수 정보가 누락되었습니다 (4점 감점)
 존재하지 않는 회원 조회의 응답 코드가 400이 아닙니다 (1점 감점)</t>
-  </si>
-  <si>
-    <t>올바른 URL이 아닙니다: Invalid URL (10점 감점)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">올바른 URL이 아닙니다: 허용되지 않은 프로토콜(https:)
-시험용 프로토콜은 http만 허용됩니다 (10점 감점)</t>
   </si>
 </sst>
 </file>
@@ -19335,7 +19348,7 @@
         <v>422</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>466</v>
@@ -19352,10 +19365,10 @@
         <v>425</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19369,10 +19382,10 @@
         <v>428</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -19389,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -19406,7 +19419,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -19420,10 +19433,10 @@
         <v>437</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
